--- a/data/Book.xlsx
+++ b/data/Book.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Core Java Classroom\Programs\pegasus_m\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Project\GreatingsMail\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA7A779-1F98-47E6-B842-74ED71E68074}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF10EA8B-1606-4DD3-B491-E4F5E6292CCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{50586C85-AC7C-44DD-ADAF-A6C4BF7F6BC7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -33,21 +33,9 @@
     <t xml:space="preserve">Book id </t>
   </si>
   <si>
-    <t>sadasd</t>
-  </si>
-  <si>
     <t>img src</t>
   </si>
   <si>
-    <t>joseph</t>
-  </si>
-  <si>
-    <t>anson</t>
-  </si>
-  <si>
-    <t>vishnu</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -63,13 +51,40 @@
     <t>https://images.unsplash.com/photo-1496840220025-4cbde0b9df65?ixlib=rb-1.2.1&amp;ixid=eyJhcHBfaWQiOjEyMDd9&amp;auto=format&amp;fit=crop&amp;w=500&amp;q=60</t>
   </si>
   <si>
-    <t>sisira</t>
-  </si>
-  <si>
     <t>https://images.unsplash.com/photo-1500917293891-ef795e70e1f6?ixlib=rb-1.2.1&amp;ixid=eyJhcHBfaWQiOjEyMDd9&amp;auto=format&amp;fit=crop&amp;w=500&amp;q=60</t>
   </si>
   <si>
-    <t>someone@domain.com</t>
+    <t>joseph_1</t>
+  </si>
+  <si>
+    <t>joseph_2</t>
+  </si>
+  <si>
+    <t>joseph_3</t>
+  </si>
+  <si>
+    <t>joseph_4</t>
+  </si>
+  <si>
+    <t>joseph_5</t>
+  </si>
+  <si>
+    <t>joseph_6</t>
+  </si>
+  <si>
+    <t>joseph_7</t>
+  </si>
+  <si>
+    <t>joseph_8</t>
+  </si>
+  <si>
+    <t>joseph_9</t>
+  </si>
+  <si>
+    <t>joseph_10</t>
+  </si>
+  <si>
+    <t>joseph_11</t>
   </si>
 </sst>
 </file>
@@ -85,12 +100,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,17 +123,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -433,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4BFA39-006C-4F90-95E4-037138118161}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +458,7 @@
     <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -455,89 +466,146 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>35387</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>35387</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>35387</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>35387</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>35378</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>35387</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>35387</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>35378</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>35387</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>35387</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>35387</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>35387</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>35378</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>35378</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>35378</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>35387</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{1DB8D509-093A-40E0-887F-AD049DD49436}"/>
-    <hyperlink ref="D3:D6" r:id="rId2" display="someone@domain.com" xr:uid="{034239A2-D925-4941-8A10-7CC874620162}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>